--- a/spread.xlsx
+++ b/spread.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -161,11 +161,11 @@
   </sheetPr>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.94"/>
@@ -407,11 +407,11 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/spread.xlsx
+++ b/spread.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -44,7 +44,52 @@
     <t xml:space="preserve">Sale Price</t>
   </si>
   <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec</t>
+  </si>
+  <si>
     <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc</t>
   </si>
 </sst>
 </file>
@@ -121,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,10 +180,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,10 +203,10 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.94"/>
@@ -257,15 +298,30 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3" t="n">
+        <v>44241</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44325</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>56</v>
+      </c>
       <c r="F5" s="1" t="n">
         <f aca="false">D5-B5</f>
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1792</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
       <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="F6" s="1" t="n">
         <f aca="false">D6-B6</f>
         <v>0</v>
@@ -405,20 +461,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/spread.xlsx
+++ b/spread.xlsx
@@ -203,10 +203,10 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.94"/>
@@ -295,28 +295,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>44241</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>44325</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="F5" s="1" t="n">
         <f aca="false">D5-B5</f>
-        <v>84</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -464,10 +450,10 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -524,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>

--- a/spread.xlsx
+++ b/spread.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve">Misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed per Pig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed per Pig per age</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.94"/>
@@ -447,15 +456,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.74"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>2021</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,15 +550,139 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/spread.xlsx
+++ b/spread.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>644</v>
+        <v>320</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0</v>
